--- a/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.18.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.18.xlsx
@@ -58,222 +58,225 @@
     <t>בסדר</t>
   </si>
   <si>
+    <t>מה, מה אני יעל</t>
+  </si>
+  <si>
+    <t>יעל, אהלן יעל</t>
+  </si>
+  <si>
+    <t>היי אתם משחררים אותו</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>אנחנו פה כבר די הרבה זמן</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>וקדימה</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>צחוק</t>
+  </si>
+  <si>
+    <t>laughs</t>
+  </si>
+  <si>
+    <t>אתם מאוד נחמדים</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>אבל אנחנו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תנו לנו את האנטיביוטיקה שהוא צריך </t>
+  </si>
+  <si>
+    <t>?service</t>
+  </si>
+  <si>
+    <t>ושחררו אותנו לדרכנו בבקשה</t>
+  </si>
+  <si>
+    <t>יעל קודם כל לי קוראים דוק</t>
+  </si>
+  <si>
+    <t>אני רופא כאן במחלקה</t>
+  </si>
+  <si>
+    <t>חלק מהצוות שמטפלים בבן שלך ביואב</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה </t>
+  </si>
+  <si>
+    <t>אה לפני שאני אתחיל לספר לך בואי תגידי לי קצת מה את יודעת על המצב של יואב</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ספרי לי למה הגעתם  </t>
+  </si>
+  <si>
+    <t>ומה את יודעת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא פשוט קצת לא הרגיש טוב </t>
+  </si>
+  <si>
+    <t>זה קורה לילדים</t>
+  </si>
+  <si>
+    <t>קצת כאב בטן קצת הקיא</t>
+  </si>
+  <si>
+    <t>קצת זה בסדר זה קורה</t>
+  </si>
+  <si>
+    <t>אני יודעת פשוט אתה יודע</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני לא יודעת מה עושים במקרים האלה </t>
+  </si>
+  <si>
+    <t>וזהו ובוא, בוא, בוא נצא לדרכנו</t>
+  </si>
+  <si>
+    <t>יש לי פשוט יום ממש ארוך ואני גם ממהרת לעבודה ואני פה</t>
+  </si>
+  <si>
+    <t>אני מאמין לך</t>
+  </si>
+  <si>
+    <t>legit</t>
+  </si>
+  <si>
+    <t>אבל בואי נעשה קצת סדר בדברים</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>תראי יואב באמת כמו שאת אומרת הגיע עם חולשה והוא גם הקיא ועם כאבי בטן כמה ימים</t>
+  </si>
+  <si>
+    <t>אנחנו עשינו כמה בדיקות איך שהוא הגיע אלינו בדקנו חלק מהבדיקות שגרתיות בדיקת דם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה וגילינו שיש לו סוכר מאוד גבוה בדם </t>
+  </si>
+  <si>
+    <t>לילד בגיל שלו בן חמש סוכר גבוהה בדם זה לא משהו שהוא כל כך נורמלי</t>
+  </si>
+  <si>
+    <t>ולכן בדקנו שוב עשינו עוד כמה בדיקות וראינו שהסוכר עומד ברמה גבוהה</t>
+  </si>
+  <si>
+    <t>את בסדר? מבינה?</t>
+  </si>
+  <si>
+    <t>?understand</t>
+  </si>
+  <si>
+    <t>מה זה אומר?</t>
+  </si>
+  <si>
+    <t>רמת הסוכר הגבוהה שלו אה מעידה בעצם על זה שהוא סובל ממחלה שנקראת סכרת נעורים</t>
+  </si>
+  <si>
+    <t>אני הסביר לך מזה אומר</t>
+  </si>
+  <si>
+    <t>סכרת נעורים מצב שבו קשה לגוף להתמודד עם רמות הסוכר הוא לא מפריש אינסולין שזה מה שאמור לקלוט את הסוכר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בגילו </t>
+  </si>
+  <si>
+    <t>זה בסדר אני אסביר לך בדיוק את כל השלבים</t>
+  </si>
+  <si>
+    <t>את חושבת שצריך לקבל אנטיביוטיקה ויכול להיות שהיה לו איזשהו זיהום</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אז לא מדובר באיזשהו זיהום </t>
+  </si>
+  <si>
+    <t>הטיפול הוא לא טיפול אנטיביוטי הטיפול שהוא צריך זה בעצם תחליף לאינסולין</t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>יש לו סכרת</t>
+  </si>
+  <si>
+    <t>יש לו סכרת, כן</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה מחלה לא פשוטה אבל יש לה טיפול </t>
+  </si>
+  <si>
+    <t>יש לנו טיפול שאנחנו יכולים להציע לו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ובעצם ה ה האפשרות שלו לחיות עם הסכרת היא קיימת בעזרת הטיפול שאנחנו ניתן </t>
+  </si>
+  <si>
+    <t>את רוצה לשאול שאלות או שאני אמשיך להסביר?</t>
+  </si>
+  <si>
+    <t>(לא נשמע)סכרת(לא נשמע)</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>(לא נשמע)-</t>
+  </si>
+  <si>
+    <t>סכרת מאיפה יש פתאום סכרת?</t>
+  </si>
+  <si>
+    <t>סכרת שהיא שונה מסכרת של מבוגרים סכרת של ילדים ונוער זה מחלה שהיא בעקרון מחלה גנטית</t>
+  </si>
+  <si>
+    <t>אה היא לא כזו נדירה באוכלוסייה ו</t>
+  </si>
+  <si>
     <t>r/o</t>
   </si>
   <si>
-    <t>מה, מה אני יעל</t>
-  </si>
-  <si>
-    <t>יעל, אהלן יעל</t>
-  </si>
-  <si>
-    <t>היי אתם משחררים אותו</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>אנחנו פה כבר די הרבה זמן</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>וקדימה</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>צחוק</t>
-  </si>
-  <si>
-    <t>laughs</t>
-  </si>
-  <si>
-    <t>אתם מאוד נחמדים</t>
-  </si>
-  <si>
-    <t>approve</t>
-  </si>
-  <si>
-    <t>אבל אנחנו</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תנו לנו את האנטיביוטיקה שהוא צריך </t>
-  </si>
-  <si>
-    <t>?service</t>
-  </si>
-  <si>
-    <t>ושחררו אותנו לדרכנו בבקשה</t>
-  </si>
-  <si>
-    <t>יעל קודם כל לי קוראים דוק</t>
-  </si>
-  <si>
-    <t>אני רופא כאן במחלקה</t>
-  </si>
-  <si>
-    <t>חלק מהצוות שמטפלים בבן שלך ביואב</t>
-  </si>
-  <si>
-    <t>כן</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה </t>
-  </si>
-  <si>
-    <t>אה לפני שאני אתחיל לספר לך בואי תגידי לי קצת מה את יודעת על המצב של יואב</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ספרי לי למה הגעתם  </t>
-  </si>
-  <si>
-    <t>ומה את יודעת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא פשוט קצת לא הרגיש טוב </t>
-  </si>
-  <si>
-    <t>זה קורה לילדים</t>
-  </si>
-  <si>
-    <t>קצת כאב בטן קצת הקיא</t>
-  </si>
-  <si>
-    <t>קצת זה בסדר זה קורה</t>
-  </si>
-  <si>
-    <t>אני יודעת פשוט אתה יודע</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני לא יודעת מה עושים במקרים האלה </t>
-  </si>
-  <si>
-    <t>וזהו ובוא, בוא, בוא נצא לדרכנו</t>
-  </si>
-  <si>
-    <t>יש לי פשוט יום ממש ארוך ואני גם ממהרת לעבודה ואני פה</t>
-  </si>
-  <si>
-    <t>אני מאמין לך</t>
-  </si>
-  <si>
-    <t>legit</t>
-  </si>
-  <si>
-    <t>אבל בואי נעשה קצת סדר בדברים</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>תראי יואב באמת כמו שאת אומרת הגיע עם חולשה והוא גם הקיא ועם כאבי בטן כמה ימים</t>
-  </si>
-  <si>
-    <t>אנחנו עשינו כמה בדיקות איך שהוא הגיע אלינו בדקנו חלק מהבדיקות שגרתיות בדיקת דם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה וגילינו שיש לו סוכר מאוד גבוה בדם </t>
-  </si>
-  <si>
-    <t>לילד בגיל שלו בן חמש סוכר גבוהה בדם זה לא משהו שהוא כל כך נורמלי</t>
-  </si>
-  <si>
-    <t>ולכן בדקנו שוב עשינו עוד כמה בדיקות וראינו שהסוכר עומד ברמה גבוהה</t>
-  </si>
-  <si>
-    <t>את בסדר? מבינה?</t>
-  </si>
-  <si>
-    <t>?understand</t>
-  </si>
-  <si>
-    <t>מה זה אומר?</t>
-  </si>
-  <si>
-    <t>רמת הסוכר הגבוהה שלו אה מעידה בעצם על זה שהוא סובל ממחלה שנקראת סכרת נעורים</t>
-  </si>
-  <si>
-    <t>אני הסביר לך מזה אומר</t>
-  </si>
-  <si>
-    <t>סכרת נעורים מצב שבו קשה לגוף להתמודד עם רמות הסוכר הוא לא מפריש אינסולין שזה מה שאמור לקלוט את הסוכר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בגילו </t>
-  </si>
-  <si>
-    <t>זה בסדר אני אסביר לך בדיוק את כל השלבים</t>
-  </si>
-  <si>
-    <t>את חושבת שצריך לקבל אנטיביוטיקה ויכול להיות שהיה לו איזשהו זיהום</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אז לא מדובר באיזשהו זיהום </t>
-  </si>
-  <si>
-    <t>הטיפול הוא לא טיפול אנטיביוטי הטיפול שהוא צריך זה בעצם תחליף לאינסולין</t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>יש לו סכרת</t>
-  </si>
-  <si>
-    <t>יש לו סכרת, כן</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה מחלה לא פשוטה אבל יש לה טיפול </t>
-  </si>
-  <si>
-    <t>יש לנו טיפול שאנחנו יכולים להציע לו</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ובעצם ה ה האפשרות שלו לחיות עם הסכרת היא קיימת בעזרת הטיפול שאנחנו ניתן </t>
-  </si>
-  <si>
-    <t>את רוצה לשאול שאלות או שאני אמשיך להסביר?</t>
-  </si>
-  <si>
-    <t>(לא נשמע)סכרת(לא נשמע)</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>(לא נשמע)-</t>
-  </si>
-  <si>
-    <t>סכרת מאיפה יש פתאום סכרת?</t>
-  </si>
-  <si>
-    <t>סכרת שהיא שונה מסכרת של מבוגרים סכרת של ילדים ונוער זה מחלה שהיא בעקרון מחלה גנטית</t>
-  </si>
-  <si>
-    <t>אה היא לא כזו נדירה באוכלוסייה ו</t>
-  </si>
-  <si>
     <t>אבל מה זה גנטית זה אומר שהיה צריך לבוא ממני או מבעלי אבל אין לנו</t>
   </si>
   <si>
@@ -302,9 +305,6 @@
   </si>
   <si>
     <t>אני בשוק אני לא מבינה איך כאלו מאיפה זה בא</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">איך פתאום - סכרת - כי מה? </t>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -981,13 +981,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1278,7 +1278,7 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1292,7 +1292,7 @@
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1306,7 +1306,7 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1320,7 +1320,7 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1337,7 +1337,7 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1362,7 +1362,7 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
         <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1390,10 +1390,10 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1404,10 +1404,10 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1418,10 +1418,10 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1432,7 +1432,7 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1474,10 +1474,10 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1502,7 +1502,7 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1516,10 +1516,10 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1558,7 +1558,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1575,7 +1575,7 @@
         <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1603,7 +1603,7 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1614,10 +1614,10 @@
         <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1642,7 +1642,7 @@
         <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1656,7 +1656,7 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1712,10 +1712,10 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1726,10 +1726,10 @@
         <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -1908,10 +1908,10 @@
         <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -1922,10 +1922,10 @@
         <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -1936,10 +1936,10 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -1950,10 +1950,10 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -1964,7 +1964,7 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -1978,10 +1978,10 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -1992,7 +1992,7 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2006,10 +2006,10 @@
         <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2034,7 +2034,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2048,10 +2048,10 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2076,7 +2076,7 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2104,10 +2104,10 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2118,10 +2118,10 @@
         <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2146,10 +2146,10 @@
         <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2160,7 +2160,7 @@
         <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2244,10 +2244,10 @@
         <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2258,7 +2258,7 @@
         <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2275,7 +2275,7 @@
         <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2286,7 +2286,7 @@
         <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2342,10 +2342,10 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2356,7 +2356,7 @@
         <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -2370,7 +2370,7 @@
         <v>138</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -2384,10 +2384,10 @@
         <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -2398,7 +2398,7 @@
         <v>140</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -2426,7 +2426,7 @@
         <v>142</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -2454,7 +2454,7 @@
         <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -2468,7 +2468,7 @@
         <v>144</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2482,10 +2482,10 @@
         <v>145</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2510,7 +2510,7 @@
         <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -2580,7 +2580,7 @@
         <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -2608,7 +2608,7 @@
         <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -2622,7 +2622,7 @@
         <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -2650,7 +2650,7 @@
         <v>157</v>
       </c>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
